--- a/VisionModel/output/predicted_trajectoriesY0.xlsx
+++ b/VisionModel/output/predicted_trajectoriesY0.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-100.807219093497</v>
+        <v>37.78026849737784</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>-126.1629495996933</v>
+        <v>48.72650743631324</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>-150.0950395595109</v>
+        <v>53.38108332448111</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>-192.1212437073945</v>
+        <v>69.18637462904245</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>-206.7479585899067</v>
+        <v>78.7283180333721</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>-215.1259335373038</v>
+        <v>89.86865947206783</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>-217.2518260971898</v>
+        <v>104.9102670315499</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>-221.7600628699916</v>
+        <v>114.4497776230204</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>-224.4381624889659</v>
+        <v>127.9544756436364</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>-231.621317422219</v>
+        <v>137.8410833860163</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>-238.4693809363605</v>
+        <v>144.3184152363771</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>-237.3205932057396</v>
+        <v>159.9258231821239</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>-237.0220502203574</v>
+        <v>169.288398864032</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>-237.9727696407939</v>
+        <v>181.2185370051314</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>-239.7712156941517</v>
+        <v>191.2606969940322</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-243.65254869511</v>
+        <v>196.2424331534309</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>-243.3299553684325</v>
+        <v>209.4036938034245</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>-239.0352297364166</v>
+        <v>225.4779165271265</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>-236.9422664484852</v>
+        <v>236.1211981883622</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>-235.4409846805153</v>
+        <v>242.2162037202863</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>-239.473787251319</v>
+        <v>247.7348271188889</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>-235.7999229387485</v>
+        <v>259.2852333583726</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>-230.0418264703317</v>
+        <v>279.6313658886244</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>-231.0110966439288</v>
+        <v>280.5491010327485</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>-227.3984870332305</v>
+        <v>293.4673337497381</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>-218.8740976409392</v>
+        <v>307.1278647175675</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>-217.6643464588578</v>
+        <v>316.1046209500494</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>-219.4682665110663</v>
+        <v>324.1343600576988</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>-210.4466485798719</v>
+        <v>335.6226317676184</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>-214.9294221770589</v>
+        <v>341.2372731593209</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>-204.0047202163037</v>
+        <v>353.2226338130175</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>-203.8675107405052</v>
+        <v>357.3131116996032</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>-118.106362612472</v>
+        <v>383.1703053500188</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>-109.7115535822133</v>
+        <v>397.8856341758691</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>-110.0517081880076</v>
+        <v>398.7776207906584</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>-98.27426534618891</v>
+        <v>415.6449855088512</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>-87.8424158213995</v>
+        <v>423.2452915393005</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>-77.38603635548735</v>
+        <v>438.5885947038245</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>-71.53527242898947</v>
+        <v>446.6896550694166</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>-59.56518184898991</v>
+        <v>465.8083263651208</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>-55.05858821816386</v>
+        <v>472.2497563846252</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>-47.14998123688108</v>
+        <v>481.8761548945769</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>-28.09453928057787</v>
+        <v>504.2771954897259</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>-14.55108904034914</v>
+        <v>517.3957449828362</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>-8.435211632182323</v>
+        <v>525.783650409262</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>3.377452615968636</v>
+        <v>539.5617452631528</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>5.574363300863544</v>
+        <v>540.7086053502101</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>109.3019058467875</v>
+        <v>557.0863253492348</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>114.4172806684511</v>
+        <v>564.1686228460293</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>119.7958466182104</v>
+        <v>572.0785584921365</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>126.9860780713627</v>
+        <v>581.89976530272</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>133.7349115126788</v>
+        <v>589.5159332108192</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>140.6872843556369</v>
+        <v>597.5251773286714</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>150.4742400798867</v>
+        <v>609.2398230932453</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>150.0136667585675</v>
+        <v>610.2495999744149</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>158.4985179698724</v>
+        <v>621.5724517240851</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>153.890429248538</v>
+        <v>615.9212470505572</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>158.4377462720851</v>
+        <v>618.7569804071652</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>160.6301812494936</v>
+        <v>620.6545633920869</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>160.2733164200179</v>
+        <v>620.6463235810013</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>160.9545052075962</v>
+        <v>621.3295437090229</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesY0.xlsx
+++ b/VisionModel/output/predicted_trajectoriesY0.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.78026849737784</v>
+        <v>30.4397731227338</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>48.72650743631324</v>
+        <v>38.20502188407325</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>53.38108332448111</v>
+        <v>35.21436270867769</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>69.18637462904245</v>
+        <v>48.43409545658513</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>78.7283180333721</v>
+        <v>61.07714571501362</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>89.86865947206783</v>
+        <v>70.50510813979032</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>104.9102670315499</v>
+        <v>80.53375558817824</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>114.4497776230204</v>
+        <v>87.52339934547867</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>127.9544756436364</v>
+        <v>94.162789435116</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>137.8410833860163</v>
+        <v>109.9088414734317</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>144.3184152363771</v>
+        <v>115.3182243824334</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>159.9258231821239</v>
+        <v>126.7658016717521</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>169.288398864032</v>
+        <v>136.2272366785352</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>181.2185370051314</v>
+        <v>146.0478662119301</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>191.2606969940322</v>
+        <v>153.5387168450899</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>196.2424331534309</v>
+        <v>166.5430047247741</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>209.4036938034245</v>
+        <v>173.9547299083377</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>225.4779165271265</v>
+        <v>190.3025432890343</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>236.1211981883622</v>
+        <v>200.4110385373977</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>242.2162037202863</v>
+        <v>204.8282086163355</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>247.7348271188889</v>
+        <v>212.6839822225405</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>259.2852333583726</v>
+        <v>219.7050737278354</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>279.6313658886244</v>
+        <v>244.0190363075733</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>280.5491010327485</v>
+        <v>247.6221600294006</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>293.4673337497381</v>
+        <v>258.3740680441053</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>307.1278647175675</v>
+        <v>268.0018304445429</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>316.1046209500494</v>
+        <v>278.2614259565154</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>324.1343600576988</v>
+        <v>283.7885154259984</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>335.6226317676184</v>
+        <v>296.4583497063255</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>341.2372731593209</v>
+        <v>309.5153359641639</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>353.2226338130175</v>
+        <v>304.3426334569814</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>357.3131116996032</v>
+        <v>307.3211362957871</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>383.1703053500188</v>
+        <v>324.3294911169081</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>397.8856341758691</v>
+        <v>339.130649220143</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>398.7776207906584</v>
+        <v>339.6680929850742</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>415.6449855088512</v>
+        <v>353.9380312409988</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>423.2452915393005</v>
+        <v>364.0731227609003</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>438.5885947038245</v>
+        <v>376.6321761199234</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>446.6896550694166</v>
+        <v>385.1840067871106</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>465.8083263651208</v>
+        <v>402.1141205234409</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>472.2497563846252</v>
+        <v>409.6757775777224</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>481.8761548945769</v>
+        <v>417.7259465236669</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>504.2771954897259</v>
+        <v>427.9950731796807</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>517.3957449828362</v>
+        <v>442.303775585897</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>525.783650409262</v>
+        <v>451.2115804612736</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>539.5617452631528</v>
+        <v>464.1253751266472</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>540.7086053502101</v>
+        <v>462.7684141179541</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>557.0863253492348</v>
+        <v>532.4895523720602</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>564.1686228460293</v>
+        <v>538.5350260499763</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>572.0785584921365</v>
+        <v>546.4948659263106</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>581.89976530272</v>
+        <v>557.3356022650211</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>589.5159332108192</v>
+        <v>561.0766281123863</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>597.5251773286714</v>
+        <v>570.5794059401441</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>609.2398230932453</v>
+        <v>577.8494618276045</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>610.2495999744149</v>
+        <v>583.6887118733938</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>621.5724517240851</v>
+        <v>592.8609074834558</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>615.9212470505572</v>
+        <v>590.8992244114816</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>618.7569804071652</v>
+        <v>601.494854113642</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>620.6545633920869</v>
+        <v>601.5502142789176</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>620.6463235810013</v>
+        <v>601.535985307298</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>621.3295437090229</v>
+        <v>601.5631457759213</v>
       </c>
     </row>
   </sheetData>
